--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2501.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2501.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.786205577992025</v>
+        <v>0.3963402211666107</v>
       </c>
       <c r="B1">
-        <v>4.546642486660689</v>
+        <v>1.480807542800903</v>
       </c>
       <c r="C1">
-        <v>2.972620362136396</v>
+        <v>3.682619094848633</v>
       </c>
       <c r="D1">
-        <v>2.735511442813312</v>
+        <v>3.275521516799927</v>
       </c>
       <c r="E1">
-        <v>3.532021376100816</v>
+        <v>0.8217142224311829</v>
       </c>
     </row>
   </sheetData>
